--- a/Client/assets/Csv/Cargo.xlsx
+++ b/Client/assets/Csv/Cargo.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stvzhou/git/AnnoArk/Client/assets/Csv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\AnnoArk\Client\assets\Csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,14 +182,18 @@
   </si>
   <si>
     <t>missile90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsFood</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -237,6 +241,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -505,15 +512,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -523,8 +530,11 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -534,8 +544,11 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -546,7 +559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -556,8 +569,11 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -567,8 +583,11 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -579,7 +598,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -590,7 +609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -601,7 +620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -612,7 +631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -623,7 +642,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -634,7 +653,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -642,7 +661,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -650,7 +669,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -658,7 +677,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -666,7 +685,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -674,7 +693,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -682,7 +701,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -690,7 +709,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>38</v>
       </c>

--- a/Client/assets/Csv/Cargo.xlsx
+++ b/Client/assets/Csv/Cargo.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\AnnoArk\Client\assets\Csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stvzhou/git/AnnoArk/Client/assets/Csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,18 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>套餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>硅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -69,10 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>糖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>甲烷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -81,42 +65,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>石油</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>芯片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>铜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电动机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光伏板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tool43924</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rice43002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>meal32872</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sand20932</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,10 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sugar2892</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>methane74</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -137,14 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>oil480324</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uranium4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>chip94024</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,43 +97,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>copper203</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>motor2421</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>solarpanel2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ammo32081</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>missile90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IsFood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nukemiss55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坦克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直升机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战舰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tank23532</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chopper424</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运输舰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ship40342</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transship42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步兵套装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>marinesuit20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deuter3501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>氢弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MilitaryPower</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -512,15 +484,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -531,10 +503,13 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -548,173 +523,135 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>202</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>201</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>203</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>204</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>205</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
         <v>19</v>
       </c>
-      <c r="B3">
-        <v>101</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>20</v>
       </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="b">
+      <c r="E13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
         <v>21</v>
       </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="b">
+      <c r="E14" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6">
-        <v>201</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7">
-        <v>202</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8">
-        <v>203</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10">
-        <v>204</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11">
-        <v>205</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Client/assets/Csv/Cargo.xlsx
+++ b/Client/assets/Csv/Cargo.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stvzhou/git/AnnoArk/Client/assets/Csv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\AnnoArk\Client\assets\Csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="500"/>
+    <workbookView xWindow="15" yWindow="465" windowWidth="28800" windowHeight="16245" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -164,8 +164,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -490,9 +490,9 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -509,7 +509,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -523,7 +523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -534,7 +534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -545,7 +545,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -556,7 +556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -567,7 +567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -578,7 +578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -586,7 +586,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -594,7 +594,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -602,7 +602,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -613,7 +613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -624,7 +624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -635,7 +635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -646,7 +646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>26</v>
       </c>

--- a/Client/assets/Csv/Cargo.xlsx
+++ b/Client/assets/Csv/Cargo.xlsx
@@ -14,7 +14,10 @@
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$D$1</definedName>
+  </definedNames>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,87 +80,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>carbon480</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chip94024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iron83420</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsFood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nukemiss55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坦克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直升机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战舰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deuter3501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>氢弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tank23532</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chopper424</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ship40342</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>methane74</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>carbon480</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chip94024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iron83420</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsFood</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nukemiss55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坦克</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直升机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战舰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tank23532</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chopper424</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运输舰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ship40342</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>transship42</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>步兵套装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>marinesuit20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deuter3501</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>氢弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MilitaryPower</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,15 +467,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -503,158 +486,153 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="D2" t="b">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>202</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>201</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B5">
-        <v>203</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6">
-        <v>204</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>205</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
       <c r="C8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>101</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>102</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>103</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>200</v>
+      </c>
+      <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>210</v>
+      </c>
+      <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1">
+    <sortState ref="A2:D13">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
+  <sortState ref="A2:E13">
+    <sortCondition ref="A1"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
